--- a/data/georgia_census/imereti/tyibuli/average_wages.xlsx
+++ b/data/georgia_census/imereti/tyibuli/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004310DA-C6D3-4E46-BDF1-4A013FEDBA44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A60D148-CAC8-4277-A623-370F6F020E5A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{962D90C8-8F23-4B3E-B9DD-D8BDB7836DF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5EFFF9-C843-4E9B-8ADD-1E57FE1B2D26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5944FFD4-F17A-46C7-9FE9-1A0265F2FE92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C03879D-8CE6-45BB-A0A5-5793CAD52FF8}"/>
 </file>